--- a/netvis/data/netgraphs/netgraph_192.168.1.38.xlsx
+++ b/netvis/data/netgraphs/netgraph_192.168.1.38.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="nodes" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="edges" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sources" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,132 +451,115 @@
           <t>As_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Netblock</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>192.168.1.1</t>
+          <t>192.168.1.38</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>172.27.61.1</t>
+          <t>192.168.1.1</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14.192.3.69</t>
+          <t>172.27.61.1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18229</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CTRLS-AS-IN CtrlS, IN</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>103.255.145.45</t>
+          <t>14.192.3.69</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150008</v>
+        <v>18229</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PEL-AS-IN Pioneer Elabs Ltd., IN</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>CTRLS-AS-IN CtrlS, IN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>137.59.200.18</t>
+          <t>103.255.145.45</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18229</v>
+        <v>150008</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CTRLS-AS-IN CtrlS, IN</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>PEL-AS-IN Pioneer Elabs Ltd., IN</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>14.142.71.189</t>
+          <t>137.59.200.18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4755</v>
+        <v>18229</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TATACOMM-AS TATA Communications formerly VSNL is Leading ISP</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>CTRLS-AS-IN CtrlS, IN</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>172.25.81.134</t>
+          <t>14.142.71.189</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+        <v>4755</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TATACOMM-AS TATA Communications formerly VSNL is Leading ISP</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>180.87.38.5</t>
+          <t>172.25.81.134</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6453</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>AS6453, US</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>195.219.174.16</t>
+          <t>180.87.38.5</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -586,12 +570,11 @@
           <t>AS6453, US</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>195.219.174.9</t>
+          <t>195.219.174.16</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -602,7 +585,6 @@
           <t>AS6453, US</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -618,7 +600,6 @@
           <t>AS6453, US</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -634,7 +615,6 @@
           <t>YALE-AS, US</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -650,7 +630,6 @@
           <t>YALE-AS, US</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -666,44 +645,41 @@
           <t>RELIANCEJIO-IN Reliance Jio Infocomm Limited, IN</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>118.214.38.14</t>
+          <t>49.44.187.5</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16625</v>
+        <v>55836</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AKAMAI-AS, US</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>RELIANCEJIO-IN Reliance Jio Infocomm Limited, IN</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>202.65.133.42</t>
+          <t>118.214.38.14</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18229</v>
+        <v>16625</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CTRLS-AS-IN CtrlS, IN</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>AKAMAI-AS, US</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>103.156.182.106</t>
+          <t>59.145.146.105</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -714,216 +690,202 @@
           <t>BBIL-AP BHARTI Airtel Ltd., IN</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>45.60.15.134</t>
+          <t>116.119.73.104</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19551</v>
+        <v>9498</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>INCAPSULA, US</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>BBIL-AP BHARTI Airtel Ltd., IN</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>172.31.244.45</t>
+          <t>62.115.42.118</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+        <v>1299</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TWELVE99 Arelion, fka Telia Carrier, SE</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>180.87.37.1</t>
+          <t>62.115.124.56</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6453</v>
+        <v>1299</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AS6453, US</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>TWELVE99 Arelion, fka Telia Carrier, SE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>180.87.15.17</t>
+          <t>62.115.122.159</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6453</v>
+        <v>1299</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AS6453, US</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>TWELVE99 Arelion, fka Telia Carrier, SE</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>180.87.181.73</t>
+          <t>62.115.119.231</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6453</v>
+        <v>1299</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AS6453, US</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>TWELVE99 Arelion, fka Telia Carrier, SE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>120.29.211.2</t>
+          <t>62.115.54.67</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6453</v>
+        <v>1299</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AS6453, US</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>TWELVE99 Arelion, fka Telia Carrier, SE</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>209.58.86.200</t>
+          <t>45.60.17.134</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6453</v>
+        <v>19551</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AS6453, US</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>INCAPSULA, US</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>63.243.251.1</t>
+          <t>182.79.245.6</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6453</v>
+        <v>9498</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AS6453, US</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>BBIL-AP BHARTI Airtel Ltd., IN</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>64.86.123.94</t>
+          <t>206.82.104.62</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6453</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>AS6453, US</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>64.86.123.93</t>
+          <t>104.127.170.77</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6453</v>
+        <v>16625</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AS6453, US</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>AKAMAI-AS, US</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>207.45.206.78</t>
+          <t>202.65.133.42</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6453</v>
+        <v>18229</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AS6453, US</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>CTRLS-AS-IN CtrlS, IN</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>23.203.145.241</t>
+          <t>104.44.36.137</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20940</v>
+        <v>8075</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AKAMAI-ASN1, NL</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>MICROSOFT-CORP-MSN-AS-BLOCK, US</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>23.37.213.159</t>
+          <t>104.44.55.183</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16625</v>
+        <v>8075</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AKAMAI-AS, US</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>MICROSOFT-CORP-MSN-AS-BLOCK, US</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>104.44.14.117</t>
+          <t>104.44.23.253</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -934,12 +896,11 @@
           <t>MICROSOFT-CORP-MSN-AS-BLOCK, US</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>104.44.40.122</t>
+          <t>104.44.19.130</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -950,12 +911,11 @@
           <t>MICROSOFT-CORP-MSN-AS-BLOCK, US</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>104.44.22.127</t>
+          <t>104.44.29.96</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -966,12 +926,11 @@
           <t>MICROSOFT-CORP-MSN-AS-BLOCK, US</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>104.44.18.201</t>
+          <t>104.44.19.85</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -982,12 +941,11 @@
           <t>MICROSOFT-CORP-MSN-AS-BLOCK, US</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>104.44.7.13</t>
+          <t>104.44.7.69</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -998,12 +956,11 @@
           <t>MICROSOFT-CORP-MSN-AS-BLOCK, US</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>104.44.18.212</t>
+          <t>104.44.23.71</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1014,152 +971,142 @@
           <t>MICROSOFT-CORP-MSN-AS-BLOCK, US</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>104.44.18.167</t>
+          <t>137.59.200.16</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8075</v>
+        <v>18229</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MICROSOFT-CORP-MSN-AS-BLOCK, US</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>CTRLS-AS-IN CtrlS, IN</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>104.44.7.189</t>
+          <t>122.15.230.90</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8075</v>
+        <v>55410</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MICROSOFT-CORP-MSN-AS-BLOCK, US</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>VIL-AS-AP Vodafone Idea Ltd, IN</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>104.44.22.168</t>
+          <t>182.19.108.215</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8075</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>MICROSOFT-CORP-MSN-AS-BLOCK, US</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>137.59.200.16</t>
+          <t>210.176.138.157</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18229</v>
+        <v>4637</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CTRLS-AS-IN CtrlS, IN</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>ASN-TELSTRA-GLOBAL Telstra Global, HK</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>122.15.230.90</t>
+          <t>202.84.249.253</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55410</v>
+        <v>4637</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>VIL-AS-AP Vodafone Idea Ltd, IN</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>ASN-TELSTRA-GLOBAL Telstra Global, HK</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>182.19.108.215</t>
+          <t>202.84.140.34</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+        <v>4637</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ASN-TELSTRA-GLOBAL Telstra Global, HK</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>210.176.138.157</t>
+          <t>203.50.13.97</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4637</v>
+        <v>1221</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ASN-TELSTRA-GLOBAL Telstra Global, HK</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>ASN-TELSTRA Telstra Corporation Ltd, AU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>202.84.249.253</t>
+          <t>203.50.6.100</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4637</v>
+        <v>1221</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ASN-TELSTRA-GLOBAL Telstra Global, HK</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>ASN-TELSTRA Telstra Corporation Ltd, AU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>202.84.140.34</t>
+          <t>203.50.6.107</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4637</v>
+        <v>1221</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ASN-TELSTRA-GLOBAL Telstra Global, HK</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>ASN-TELSTRA Telstra Corporation Ltd, AU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>203.50.13.97</t>
+          <t>203.50.11.173</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1170,12 +1117,11 @@
           <t>ASN-TELSTRA Telstra Corporation Ltd, AU</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>203.50.6.100</t>
+          <t>203.54.190.234</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1186,108 +1132,101 @@
           <t>ASN-TELSTRA Telstra Corporation Ltd, AU</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>203.50.6.107</t>
+          <t>92.61.237.50</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1221</v>
+        <v>25003</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ASN-TELSTRA Telstra Corporation Ltd, AU</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>INTERNET_BINAT, IL</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>203.50.11.173</t>
+          <t>125.16.25.17</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1221</v>
+        <v>9498</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ASN-TELSTRA Telstra Corporation Ltd, AU</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>BBIL-AP BHARTI Airtel Ltd., IN</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>203.54.190.234</t>
+          <t>116.119.68.60</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1221</v>
+        <v>9498</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ASN-TELSTRA Telstra Corporation Ltd, AU</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>BBIL-AP BHARTI Airtel Ltd., IN</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>92.61.237.50</t>
+          <t>149.14.224.161</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25003</v>
+        <v>174</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>INTERNET_BINAT, IL</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>COGENT-174, US</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>125.16.25.17</t>
+          <t>130.117.48.205</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>9498</v>
+        <v>174</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BBIL-AP BHARTI Airtel Ltd., IN</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>COGENT-174, US</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>116.119.68.60</t>
+          <t>130.117.51.42</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>9498</v>
+        <v>174</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BBIL-AP BHARTI Airtel Ltd., IN</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>COGENT-174, US</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>149.14.224.161</t>
+          <t>130.117.0.142</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1298,12 +1237,11 @@
           <t>COGENT-174, US</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>130.117.48.205</t>
+          <t>154.54.37.30</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1314,12 +1252,11 @@
           <t>COGENT-174, US</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>130.117.51.42</t>
+          <t>154.25.14.234</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1330,12 +1267,11 @@
           <t>COGENT-174, US</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>130.117.0.142</t>
+          <t>149.11.21.170</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1346,108 +1282,97 @@
           <t>COGENT-174, US</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>154.54.37.30</t>
+          <t>85.132.90.158</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>174</v>
+        <v>29049</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>COGENT-174, US</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>DELTA-TELECOM-AS International Communication Operator, AZ</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>154.25.14.234</t>
+          <t>94.182.144.138</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>174</v>
+        <v>31549</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>COGENT-174, US</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>RASANA, IR</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>149.11.21.170</t>
+          <t>94.182.146.39</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>174</v>
+        <v>31549</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>COGENT-174, US</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>RASANA, IR</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>85.132.90.158</t>
+          <t>116.119.44.136</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>29049</v>
+        <v>9498</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DELTA-TELECOM-AS International Communication Operator, AZ</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>BBIL-AP BHARTI Airtel Ltd., IN</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>94.182.144.138</t>
+          <t>206.72.211.119</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>31549</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>RASANA, IR</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>94.182.146.39</t>
+          <t>45.60.110.27</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>31549</v>
+        <v>19551</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>RASANA, IR</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>INCAPSULA, US</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>122.185.215.9</t>
+          <t>116.119.57.19</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1458,279 +1383,189 @@
           <t>BBIL-AP BHARTI Airtel Ltd., IN</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>116.119.44.134</t>
+          <t>198.32.160.21</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9498</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>BBIL-AP BHARTI Airtel Ltd., IN</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>206.72.211.119</t>
+          <t>109.105.97.65</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+        <v>2603</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NORDUNET, DK</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>107.154.249.27</t>
+          <t>109.105.97.125</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>19551</v>
+        <v>2603</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>INCAPSULA, US</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>NORDUNET, DK</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>103.105.179.11</t>
+          <t>109.105.97.42</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>137097</v>
+        <v>2603</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>REACHTEL-AS Rohan Media Private Ltd, IN</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>NORDUNET, DK</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>116.119.57.19</t>
+          <t>109.105.102.181</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9498</v>
+        <v>2603</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BBIL-AP BHARTI Airtel Ltd., IN</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>NORDUNET, DK</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>198.32.160.21</t>
+          <t>130.208.17.114</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+        <v>15474</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>RHNET SURISRHnet, IS</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>109.105.97.65</t>
+          <t>130.208.18.174</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2603</v>
+        <v>15474</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NORDUNET, DK</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>RHNET SURISRHnet, IS</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>109.105.97.125</t>
+          <t>130.208.160.178</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2603</v>
+        <v>15474</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NORDUNET, DK</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>RHNET SURISRHnet, IS</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>109.105.97.42</t>
+          <t>130.208.165.186</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2603</v>
+        <v>15474</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NORDUNET, DK</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>RHNET SURISRHnet, IS</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>109.105.102.181</t>
+          <t>198.18.5.15</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2603</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>NORDUNET, DK</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>130.208.17.114</t>
+          <t>103.77.108.11</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>15474</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>RHNET SURISRHnet, IS</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>130.208.18.174</t>
+          <t>172.69.82.5</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>15474</v>
+        <v>13335</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>RHNET SURISRHnet, IS</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>CLOUDFLARENET, US</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>130.208.160.178</t>
+          <t>104.18.9.132</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>15474</v>
+        <v>13335</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>RHNET SURISRHnet, IS</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>130.208.165.186</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>15474</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>RHNET SURISRHnet, IS</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>198.18.5.15</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>103.77.108.11</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>172.69.82.5</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>13335</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
           <t>CLOUDFLARENET, US</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>104.18.9.132</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>13335</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>CLOUDFLARENET, US</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1743,7 +1578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1766,115 +1601,115 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>192.168.1.38</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>192.168.1.1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>172.27.61.1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>192.168.1.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>172.27.61.1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>14.192.3.69</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>172.27.61.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>14.192.3.69</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>103.255.145.45</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>14.192.3.69</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>103.255.145.45</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>137.59.200.18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>103.255.145.45</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>137.59.200.18</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>14.142.71.189</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>137.59.200.18</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>14.142.71.189</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>172.25.81.134</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>14.142.71.189</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>172.25.81.134</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>180.87.38.5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>172.25.81.134</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>180.87.38.5</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>195.219.174.16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>180.87.38.5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>195.219.174.16</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>195.219.174.9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>195.219.174.9</t>
+          <t>195.219.174.16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1927,823 +1762,784 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>118.214.38.14</t>
+          <t>49.44.187.5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>103.255.145.45</t>
+          <t>49.44.187.5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>202.65.133.42</t>
+          <t>118.214.38.14</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>202.65.133.42</t>
+          <t>137.59.200.18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>103.156.182.106</t>
+          <t>59.145.146.105</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>103.156.182.106</t>
+          <t>59.145.146.105</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>45.60.15.134</t>
+          <t>116.119.73.104</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>14.142.71.189</t>
+          <t>116.119.73.104</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>172.31.244.45</t>
+          <t>62.115.42.118</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>172.31.244.45</t>
+          <t>62.115.42.118</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>180.87.37.1</t>
+          <t>62.115.124.56</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>180.87.37.1</t>
+          <t>62.115.124.56</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>180.87.15.17</t>
+          <t>62.115.122.159</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>180.87.15.17</t>
+          <t>62.115.122.159</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>180.87.181.73</t>
+          <t>62.115.119.231</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>180.87.181.73</t>
+          <t>62.115.119.231</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>120.29.211.2</t>
+          <t>62.115.54.67</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>120.29.211.2</t>
+          <t>62.115.54.67</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>209.58.86.200</t>
+          <t>45.60.17.134</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>209.58.86.200</t>
+          <t>59.145.146.105</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>63.243.251.1</t>
+          <t>182.79.245.6</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>63.243.251.1</t>
+          <t>182.79.245.6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>64.86.123.94</t>
+          <t>206.82.104.62</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>64.86.123.94</t>
+          <t>206.82.104.62</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>64.86.123.93</t>
+          <t>104.127.170.77</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>64.86.123.93</t>
+          <t>103.255.145.45</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>207.45.206.78</t>
+          <t>202.65.133.42</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>207.45.206.78</t>
+          <t>202.65.133.42</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>23.203.145.241</t>
+          <t>104.44.36.137</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>23.203.145.241</t>
+          <t>104.44.36.137</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>23.37.213.159</t>
+          <t>104.44.55.183</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>202.65.133.42</t>
+          <t>104.44.55.183</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>104.44.14.117</t>
+          <t>104.44.23.253</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>104.44.14.117</t>
+          <t>104.44.23.253</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>104.44.40.122</t>
+          <t>104.44.19.130</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>104.44.40.122</t>
+          <t>104.44.19.130</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>104.44.22.127</t>
+          <t>104.44.29.96</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>104.44.22.127</t>
+          <t>104.44.29.96</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>104.44.18.201</t>
+          <t>104.44.19.85</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>104.44.18.201</t>
+          <t>104.44.19.85</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>104.44.7.13</t>
+          <t>104.44.7.69</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>104.44.7.13</t>
+          <t>104.44.7.69</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>104.44.18.212</t>
+          <t>104.44.23.71</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>104.44.18.212</t>
+          <t>103.255.145.45</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>104.44.18.167</t>
+          <t>137.59.200.16</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>104.44.18.167</t>
+          <t>137.59.200.16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>104.44.7.189</t>
+          <t>122.15.230.90</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>104.44.7.189</t>
+          <t>122.15.230.90</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>104.44.22.168</t>
+          <t>182.19.108.215</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>103.255.145.45</t>
+          <t>182.19.108.215</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>137.59.200.16</t>
+          <t>210.176.138.157</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>137.59.200.16</t>
+          <t>210.176.138.157</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>122.15.230.90</t>
+          <t>202.84.249.253</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>122.15.230.90</t>
+          <t>202.84.249.253</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>182.19.108.215</t>
+          <t>202.84.140.34</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>182.19.108.215</t>
+          <t>202.84.140.34</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>210.176.138.157</t>
+          <t>203.50.13.97</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>210.176.138.157</t>
+          <t>203.50.13.97</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>202.84.249.253</t>
+          <t>203.50.6.100</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>202.84.249.253</t>
+          <t>203.50.6.100</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>202.84.140.34</t>
+          <t>203.50.6.107</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>202.84.140.34</t>
+          <t>203.50.6.107</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>203.50.13.97</t>
+          <t>203.50.11.173</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>203.50.13.97</t>
+          <t>203.50.11.173</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>203.50.6.100</t>
+          <t>203.54.190.234</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>203.50.6.100</t>
+          <t>203.54.190.234</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>203.50.6.107</t>
+          <t>92.61.237.50</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>203.50.6.107</t>
+          <t>137.59.200.16</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>203.50.11.173</t>
+          <t>125.16.25.17</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>203.50.11.173</t>
+          <t>125.16.25.17</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>203.54.190.234</t>
+          <t>116.119.68.60</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>203.54.190.234</t>
+          <t>116.119.68.60</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>92.61.237.50</t>
+          <t>149.14.224.161</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>137.59.200.16</t>
+          <t>149.14.224.161</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>125.16.25.17</t>
+          <t>130.117.48.205</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>125.16.25.17</t>
+          <t>130.117.48.205</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>116.119.68.60</t>
+          <t>130.117.51.42</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>116.119.68.60</t>
+          <t>130.117.51.42</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>149.14.224.161</t>
+          <t>130.117.0.142</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>149.14.224.161</t>
+          <t>130.117.0.142</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>130.117.48.205</t>
+          <t>154.54.37.30</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>130.117.48.205</t>
+          <t>154.54.37.30</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>130.117.51.42</t>
+          <t>154.25.14.234</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>130.117.51.42</t>
+          <t>154.25.14.234</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>130.117.0.142</t>
+          <t>149.11.21.170</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>130.117.0.142</t>
+          <t>149.11.21.170</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>154.54.37.30</t>
+          <t>85.132.90.158</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>154.54.37.30</t>
+          <t>85.132.90.158</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>154.25.14.234</t>
+          <t>94.182.144.138</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>154.25.14.234</t>
+          <t>94.182.144.138</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>149.11.21.170</t>
+          <t>94.182.146.39</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>149.11.21.170</t>
+          <t>125.16.25.17</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>85.132.90.158</t>
+          <t>116.119.44.136</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>85.132.90.158</t>
+          <t>116.119.44.136</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>94.182.144.138</t>
+          <t>206.72.211.119</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>94.182.144.138</t>
+          <t>206.72.211.119</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>94.182.146.39</t>
+          <t>45.60.110.27</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>137.59.200.18</t>
+          <t>125.16.25.17</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>122.185.215.9</t>
+          <t>116.119.57.19</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>122.185.215.9</t>
+          <t>116.119.57.19</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>116.119.44.134</t>
+          <t>198.32.160.21</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>116.119.44.134</t>
+          <t>198.32.160.21</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>206.72.211.119</t>
+          <t>109.105.97.65</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>206.72.211.119</t>
+          <t>109.105.97.65</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>107.154.249.27</t>
+          <t>109.105.97.125</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>172.27.61.1</t>
+          <t>109.105.97.125</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>103.105.179.11</t>
+          <t>109.105.97.42</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>103.105.179.11</t>
+          <t>109.105.97.42</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>14.192.3.69</t>
+          <t>109.105.102.181</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>125.16.25.17</t>
+          <t>109.105.102.181</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>116.119.57.19</t>
+          <t>130.208.17.114</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>116.119.57.19</t>
+          <t>130.208.17.114</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>198.32.160.21</t>
+          <t>130.208.18.174</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>198.32.160.21</t>
+          <t>130.208.18.174</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>109.105.97.65</t>
+          <t>130.208.160.178</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>109.105.97.65</t>
+          <t>130.208.160.178</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>109.105.97.125</t>
+          <t>130.208.165.186</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>109.105.97.125</t>
+          <t>202.65.133.42</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>109.105.97.42</t>
+          <t>198.18.5.15</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>109.105.97.42</t>
+          <t>198.18.5.15</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>109.105.102.181</t>
+          <t>103.77.108.11</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>109.105.102.181</t>
+          <t>103.77.108.11</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>130.208.17.114</t>
+          <t>172.69.82.5</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>130.208.17.114</t>
+          <t>172.69.82.5</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>130.208.18.174</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>130.208.18.174</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>130.208.160.178</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>130.208.160.178</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>130.208.165.186</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>202.65.133.42</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>198.18.5.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>198.18.5.15</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>103.77.108.11</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>103.77.108.11</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>172.69.82.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>172.69.82.5</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
           <t>104.18.9.132</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Src_ip</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>192.168.1.38</t>
         </is>
       </c>
     </row>
